--- a/标签库.xlsx
+++ b/标签库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView tabRatio="500" windowHeight="12630" windowWidth="28695"/>
+    <workbookView tabRatio="500" windowHeight="13050" windowWidth="24180"/>
   </bookViews>
   <sheets>
     <sheet name="标签库" r:id="rId1" sheetId="3"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3715" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3503" uniqueCount="25">
   <si>
     <t>属性标签描述</t>
   </si>
@@ -10381,649 +10381,79 @@
     <t>P7103.SUM</t>
   </si>
   <si>
-    <t>生育基数</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>失业基数</t>
-  </si>
-  <si>
-    <t>个人缴费.公积金</t>
-  </si>
-  <si>
-    <t>公积金.个人比例</t>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>身份证号</t>
+  </si>
+  <si>
+    <t>工作单位</t>
+  </si>
+  <si>
+    <t>WORKCOP</t>
+  </si>
+  <si>
+    <t>基本养老保险.基数</t>
+  </si>
+  <si>
+    <t>基本养老保险.个人8%</t>
+  </si>
+  <si>
+    <t>基本养老保险.小计</t>
+  </si>
+  <si>
+    <t>工伤保险.基数</t>
+  </si>
+  <si>
+    <t>工伤保险.小计</t>
+  </si>
+  <si>
+    <t>失业保险.基数</t>
+  </si>
+  <si>
+    <t>失业保险.单位1.5%</t>
+  </si>
+  <si>
+    <t>失业保险.个人0.5%</t>
+  </si>
+  <si>
+    <t>失业保险.小计</t>
+  </si>
+  <si>
+    <t>基本医疗保险.单位基数</t>
+  </si>
+  <si>
+    <t>基本医疗保险.个人基数</t>
+  </si>
+  <si>
+    <t>基本医疗保险.2%金额</t>
+  </si>
+  <si>
+    <t>基本医疗保险.小计</t>
+  </si>
+  <si>
+    <t>生育保险.单位基数</t>
+  </si>
+  <si>
+    <t>生育保险.单位1%</t>
+  </si>
+  <si>
+    <t>生育保险.小计</t>
+  </si>
+  <si>
+    <t>住房公积金.基数</t>
+  </si>
+  <si>
+    <t>住房公积金.单位金额</t>
+  </si>
+  <si>
+    <t>住房公积金.小计</t>
   </si>
   <si>
     <t>服务费</t>
   </si>
   <si>
-    <t>应缴税金</t>
-  </si>
-  <si>
-    <t>社保费用.补缴</t>
-  </si>
-  <si>
-    <t>税金</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>PNAME</t>
-  </si>
-  <si>
-    <t>公积金.单位比例</t>
-  </si>
-  <si>
-    <t>公积金个人小计</t>
-  </si>
-  <si>
-    <t>公积金.基数</t>
-  </si>
-  <si>
-    <t>身份证号</t>
-  </si>
-  <si>
-    <t>PCID</t>
-  </si>
-  <si>
-    <t>实发工资</t>
-  </si>
-  <si>
-    <t>公积金费用.差额</t>
-  </si>
-  <si>
-    <t>公积金费用.补缴</t>
-  </si>
-  <si>
-    <t>社保费用.缴费</t>
-  </si>
-  <si>
-    <t>医疗基数</t>
-  </si>
-  <si>
-    <t>养老基数</t>
-  </si>
-  <si>
-    <t>单位缴费.公积金</t>
-  </si>
-  <si>
-    <t>社保费用.差额</t>
-  </si>
-  <si>
-    <t>社保个人小计</t>
-  </si>
-  <si>
-    <t>公积金费用.缴费</t>
-  </si>
-  <si>
-    <t>工伤基数</t>
-  </si>
-  <si>
-    <t>应发工资</t>
-  </si>
-  <si>
-    <t>人员类别</t>
-  </si>
-  <si>
-    <t>PCTYPE</t>
-  </si>
-  <si>
-    <t>城市</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>员工福利</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>社会保险.养老单位</t>
-  </si>
-  <si>
-    <t>4039.02</t>
-  </si>
-  <si>
-    <t>风险基金</t>
-  </si>
-  <si>
-    <t>工作单位</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>失业保险.单位1.5%</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>单位差额</t>
-  </si>
-  <si>
-    <t>基本养老保险.小计</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>工会会费</t>
-  </si>
-  <si>
-    <t>社会保险.养老滞纳金天数</t>
-  </si>
-  <si>
-    <t>住房公积金.小计</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>社会保险.生育滞纳金</t>
-  </si>
-  <si>
-    <t>社会保险.生育滞纳金天数</t>
-  </si>
-  <si>
-    <t>单位小计</t>
-  </si>
-  <si>
-    <t>1763.44</t>
-  </si>
-  <si>
-    <t>住房公积金.单位金额</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>社会保险.失业滞纳金天数</t>
-  </si>
-  <si>
-    <t>单位合计</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>社会保险.生育单位</t>
-  </si>
-  <si>
-    <t>170.06</t>
-  </si>
-  <si>
-    <t>失业保险.单位比例</t>
-  </si>
-  <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>医疗保险.单位金额</t>
-  </si>
-  <si>
-    <t>370.69</t>
-  </si>
-  <si>
-    <t>基本医疗保险.个人基数</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>账单年月</t>
-  </si>
-  <si>
-    <t>201711</t>
-  </si>
-  <si>
-    <t>唯一号</t>
-  </si>
-  <si>
-    <t>413440</t>
-  </si>
-  <si>
-    <t>费用小计</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>生育保险.单位基数</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>养老保险.单位基数</t>
-  </si>
-  <si>
-    <t>3902.0</t>
-  </si>
-  <si>
-    <t>生育保险.小计</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>大病救助</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>工伤保险.单位比例</t>
-  </si>
-  <si>
-    <t>0.002</t>
-  </si>
-  <si>
-    <t>医疗保险.总额</t>
-  </si>
-  <si>
-    <t>448.79</t>
-  </si>
-  <si>
-    <t>社保小计</t>
-  </si>
-  <si>
-    <t>1627.34</t>
-  </si>
-  <si>
-    <t>雇主</t>
-  </si>
-  <si>
-    <t>北京京东世纪信息技术有限公司</t>
-  </si>
-  <si>
-    <t>公积金.缴费基数</t>
-  </si>
-  <si>
-    <t>21258.0</t>
-  </si>
-  <si>
-    <t>医疗保险.单位基数</t>
-  </si>
-  <si>
-    <t>社会保险.工伤单位</t>
-  </si>
-  <si>
-    <t>63.77</t>
-  </si>
-  <si>
-    <t>住房公积金.总额</t>
-  </si>
-  <si>
-    <t>1092.0</t>
-  </si>
-  <si>
-    <t>户口管理费</t>
-  </si>
-  <si>
-    <t>服务年月</t>
-  </si>
-  <si>
-    <t>失业保险.城市</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>证件号</t>
-  </si>
-  <si>
-    <t>320322198304227315</t>
-  </si>
-  <si>
-    <t>基本医疗保险.2%金额</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>社会保险.生育基数</t>
-  </si>
-  <si>
-    <t>基本养老保险.单位20%</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>失业保险.单位基数</t>
-  </si>
-  <si>
-    <t>住房公积金.单位比例</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>住房公积金.基数</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>商保</t>
-  </si>
-  <si>
-    <t>工伤保险.单位0.5%</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>基本养老保险.基数</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>社会保险.工伤基数</t>
-  </si>
-  <si>
-    <t>工伤保险.小计</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>应付合计</t>
-  </si>
-  <si>
-    <t>医疗保险.城市</t>
-  </si>
-  <si>
-    <t>基本医疗保险.单位基数</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>养老保险.单位金额</t>
-  </si>
-  <si>
-    <t>780.4</t>
-  </si>
-  <si>
-    <t>入职体检</t>
-  </si>
-  <si>
-    <t>基本养老保险.个人8%</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>个人差额</t>
-  </si>
-  <si>
-    <t>工资.实发工资</t>
-  </si>
-  <si>
-    <t>2688.0</t>
-  </si>
-  <si>
-    <t>个人小计(纳入)</t>
-  </si>
-  <si>
-    <t>失业保险.基数</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>工伤保险.单位金额</t>
-  </si>
-  <si>
-    <t>7.81</t>
-  </si>
-  <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <t>2719.34</t>
-  </si>
-  <si>
-    <t>公积金企业小计</t>
-  </si>
-  <si>
-    <t>546.0</t>
-  </si>
-  <si>
-    <t>基本医疗保险.小计</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>社会保险.医疗滞纳金天数</t>
-  </si>
-  <si>
-    <t>基本医疗保险.单位8%</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>住房公积金.城市</t>
-  </si>
-  <si>
-    <t>社会保险.医疗滞纳金</t>
-  </si>
-  <si>
-    <t>年度体检</t>
-  </si>
-  <si>
-    <t>养老保险.总额</t>
-  </si>
-  <si>
-    <t>1092.6</t>
-  </si>
-  <si>
-    <t>失业保险.个人1%</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>失业保险.个人0.5%</t>
-  </si>
-  <si>
-    <t>工伤保险.基数</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>生育保险.单位比例</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>期间</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>生育保险.城市</t>
-  </si>
-  <si>
-    <t>工伤保险.单位0.2%</t>
-  </si>
-  <si>
-    <t>失业保险.总额</t>
-  </si>
-  <si>
-    <t>39.12</t>
-  </si>
-  <si>
-    <t>社会保险.医疗单位</t>
-  </si>
-  <si>
-    <t>2125.8</t>
-  </si>
-  <si>
-    <t>养老保险.单位比例</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>工伤保险.单位基数</t>
-  </si>
-  <si>
-    <t>残保金</t>
-  </si>
-  <si>
-    <t>公积金.单位缴费</t>
-  </si>
-  <si>
-    <t>2551.0</t>
-  </si>
-  <si>
-    <t>社会保险.失业基数</t>
-  </si>
-  <si>
-    <t>医疗保险.单位比例</t>
-  </si>
-  <si>
-    <t>0.095</t>
-  </si>
-  <si>
-    <t>社会保险.工伤滞纳金天数</t>
-  </si>
-  <si>
-    <t>社会保险.医疗基数</t>
-  </si>
-  <si>
-    <t>社会保险.工伤滞纳金</t>
-  </si>
-  <si>
     <t>个人合计</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>工资.个调税</t>
-  </si>
-  <si>
-    <t>公积金.个人缴费</t>
-  </si>
-  <si>
-    <t>失业保险.单位2%</t>
-  </si>
-  <si>
-    <t>社会保险.失业个人</t>
-  </si>
-  <si>
-    <t>42.52</t>
-  </si>
-  <si>
-    <t>失业保险.单位金额</t>
-  </si>
-  <si>
-    <t>19.52</t>
-  </si>
-  <si>
-    <t>人员类型</t>
-  </si>
-  <si>
-    <t>本市城镇</t>
-  </si>
-  <si>
-    <t>单位小计(纳入)</t>
-  </si>
-  <si>
-    <t>住房公积金.单位基数</t>
-  </si>
-  <si>
-    <t>7800.0</t>
-  </si>
-  <si>
-    <t>工伤保险.总额</t>
-  </si>
-  <si>
-    <t>公积金小计</t>
-  </si>
-  <si>
-    <t>工伤保险.城市</t>
-  </si>
-  <si>
-    <t>社会保险.养老基数</t>
-  </si>
-  <si>
-    <t>生育保险.单位1%</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>养老保险.城市</t>
-  </si>
-  <si>
-    <t>生育保险.总额</t>
-  </si>
-  <si>
-    <t>39.02</t>
-  </si>
-  <si>
-    <t>失业保险.小计</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>社会保险.失业滞纳金</t>
-  </si>
-  <si>
-    <t>社会保险.失业单位</t>
-  </si>
-  <si>
-    <t>社会保险.医疗个人</t>
-  </si>
-  <si>
-    <t>428.16</t>
-  </si>
-  <si>
-    <t>个人小计</t>
-  </si>
-  <si>
-    <t>955.9</t>
-  </si>
-  <si>
-    <t>社会保险.养老滞纳金</t>
-  </si>
-  <si>
-    <t>生育保险.单位金额</t>
-  </si>
-  <si>
-    <t>社会保险.养老个人</t>
-  </si>
-  <si>
-    <t>1700.64</t>
-  </si>
-  <si>
-    <t>社保企业小计</t>
-  </si>
-  <si>
-    <t>1217.44</t>
   </si>
 </sst>
 </file>
@@ -11309,6 +10739,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -11388,12 +10824,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11510,10 +10940,10 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="2" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="22" fontId="18" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="23" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="44">
@@ -11531,7 +10961,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="11" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
@@ -11546,7 +10976,7 @@
     <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="15" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="11" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
@@ -11567,13 +10997,13 @@
     <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="11" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="11" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="14" fontId="12" numFmtId="0">
@@ -11585,7 +11015,7 @@
     <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="6" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="2" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="11" numFmtId="0">
@@ -11597,25 +11027,25 @@
     <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="19" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="17" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="11" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="2" numFmtId="0">
@@ -11627,7 +11057,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="2" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0">
@@ -11639,7 +11069,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="11" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="11" numFmtId="0">
@@ -11648,7 +11078,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="11" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11974,10 +11404,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:D2007"/>
+  <dimension ref="A1:D1889"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1719" workbookViewId="0">
-      <selection activeCell="A1886" sqref="A1886"/>
+    <sheetView tabSelected="1" topLeftCell="A1838" workbookViewId="0">
+      <selection activeCell="C1871" sqref="C1871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -32502,1565 +31932,267 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1866" spans="1:3">
+    <row r="1866">
       <c r="A1866" t="s">
         <v>3455</v>
       </c>
       <c r="B1866" t="s">
-        <v>409</v>
-      </c>
-      <c r="C1866">
+        <v>6</v>
+      </c>
+      <c r="C1866" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="1867" spans="1:3">
+    <row r="1867">
       <c r="A1867" t="s">
         <v>3456</v>
       </c>
       <c r="B1867" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1867" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="s">
         <v>3457</v>
       </c>
-      <c r="C1867">
+      <c r="B1868" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C1868" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="1868" spans="1:3">
-      <c r="A1868" t="s">
-        <v>3458</v>
-      </c>
-      <c r="B1868" t="s">
-        <v>345</v>
-      </c>
-      <c r="C1868">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1869" spans="1:3">
+    <row r="1869">
       <c r="A1869" t="s">
         <v>3459</v>
       </c>
       <c r="B1869" t="s">
-        <v>817</v>
-      </c>
-      <c r="C1869">
+        <v>281</v>
+      </c>
+      <c r="C1869" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="1870" spans="1:3">
+    <row r="1870">
       <c r="A1870" t="s">
         <v>3460</v>
       </c>
       <c r="B1870" t="s">
-        <v>813</v>
-      </c>
-      <c r="C1870">
+        <v>1051</v>
+      </c>
+      <c r="C1870" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="1871" spans="1:3">
+    <row r="1871">
       <c r="A1871" t="s">
         <v>3461</v>
       </c>
       <c r="B1871" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1871">
+        <v>281</v>
+      </c>
+      <c r="C1871" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="1872" spans="1:3">
+    <row r="1872">
       <c r="A1872" t="s">
         <v>3462</v>
       </c>
       <c r="B1872" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1872">
+        <v>377</v>
+      </c>
+      <c r="C1872" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="1873" spans="1:3">
+    <row r="1873">
       <c r="A1873" t="s">
         <v>3463</v>
       </c>
       <c r="B1873" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C1873">
+        <v>401</v>
+      </c>
+      <c r="C1873" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="1874" spans="1:3">
+    <row r="1874">
       <c r="A1874" t="s">
         <v>3464</v>
       </c>
       <c r="B1874" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C1874">
+        <v>345</v>
+      </c>
+      <c r="C1874" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="1875" spans="1:3">
+    <row r="1875">
       <c r="A1875" t="s">
         <v>3465</v>
       </c>
       <c r="B1875" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1875" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="s">
         <v>3466</v>
       </c>
-      <c r="C1875">
+      <c r="B1876" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1876" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="1876" spans="1:3">
-      <c r="A1876" t="s">
+    <row r="1877">
+      <c r="A1877" t="s">
         <v>3467</v>
       </c>
-      <c r="B1876" t="s">
-        <v>813</v>
-      </c>
-      <c r="C1876">
+      <c r="B1877" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1877" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="1877" spans="1:3">
-      <c r="A1877" t="s">
+    <row r="1878">
+      <c r="A1878" t="s">
         <v>3468</v>
       </c>
-      <c r="B1877" t="s">
-        <v>795</v>
-      </c>
-      <c r="C1877">
+      <c r="B1878" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C1878" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="1878" spans="1:3">
-      <c r="A1878" t="s">
+    <row r="1879">
+      <c r="A1879" t="s">
         <v>3469</v>
       </c>
-      <c r="B1878" t="s">
-        <v>795</v>
-      </c>
-      <c r="C1878">
+      <c r="B1879" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C1879" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="1879" spans="1:3">
-      <c r="A1879" t="s">
+    <row r="1880">
+      <c r="A1880" t="s">
         <v>3470</v>
       </c>
-      <c r="B1879" t="s">
+      <c r="B1880" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1880" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="s">
         <v>3471</v>
       </c>
-      <c r="C1879">
+      <c r="B1881" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1881" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="1880" spans="1:3">
-      <c r="A1880" t="s">
+    <row r="1882">
+      <c r="A1882" t="s">
         <v>3472</v>
       </c>
-      <c r="B1880" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C1880">
+      <c r="B1882" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1882" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="1881" spans="1:3">
-      <c r="A1881" t="s">
+    <row r="1883">
+      <c r="A1883" t="s">
         <v>3473</v>
       </c>
-      <c r="B1881" t="s">
+      <c r="B1883" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1883" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B1884" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1884" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B1885" t="s">
+        <v>921</v>
+      </c>
+      <c r="C1885" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B1886" t="s">
+        <v>949</v>
+      </c>
+      <c r="C1886" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="s">
+        <v>3477</v>
+      </c>
+      <c r="B1887" t="s">
         <v>945</v>
       </c>
-      <c r="C1881">
+      <c r="C1887" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="1882" spans="1:3">
-      <c r="A1882" t="s">
-        <v>3474</v>
-      </c>
-      <c r="B1882" t="s">
-        <v>945</v>
-      </c>
-      <c r="C1882">
+    <row r="1888">
+      <c r="A1888" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B1888" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1888" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="1883" spans="1:3">
-      <c r="A1883" t="s">
-        <v>3475</v>
-      </c>
-      <c r="B1883" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C1883">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1884" spans="1:3">
-      <c r="A1884" t="s">
-        <v>3476</v>
-      </c>
-      <c r="B1884" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1884">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1885" spans="1:3">
-      <c r="A1885" t="s">
-        <v>3477</v>
-      </c>
-      <c r="B1885" t="s">
-        <v>281</v>
-      </c>
-      <c r="C1885">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1886" spans="1:3">
-      <c r="A1886" t="s">
-        <v>3478</v>
-      </c>
-      <c r="B1886" t="s">
-        <v>817</v>
-      </c>
-      <c r="C1886">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1887" spans="1:3">
-      <c r="A1887" t="s">
+    <row r="1889">
+      <c r="A1889" t="s">
         <v>3479</v>
       </c>
-      <c r="B1887" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C1887">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1888" spans="1:3">
-      <c r="A1888" t="s">
-        <v>3480</v>
-      </c>
-      <c r="B1888" t="s">
-        <v>845</v>
-      </c>
-      <c r="C1888">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1889" spans="1:3">
-      <c r="A1889" t="s">
-        <v>3481</v>
-      </c>
       <c r="B1889" t="s">
-        <v>945</v>
-      </c>
-      <c r="C1889">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1890" spans="1:3">
-      <c r="A1890" t="s">
-        <v>3482</v>
-      </c>
-      <c r="B1890" t="s">
-        <v>377</v>
-      </c>
-      <c r="C1890">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1891" spans="1:3">
-      <c r="A1891" t="s">
-        <v>3483</v>
-      </c>
-      <c r="B1891" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C1891">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1892" spans="1:3">
-      <c r="A1892" t="s">
-        <v>3484</v>
-      </c>
-      <c r="B1892" t="s">
-        <v>3485</v>
-      </c>
-      <c r="C1892">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1893" spans="1:3">
-      <c r="A1893" t="s">
-        <v>3486</v>
-      </c>
-      <c r="B1893" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1893">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1894">
-      <c r="A1894" t="s">
-        <v>3487</v>
-      </c>
-      <c r="B1894" t="s">
-        <v>3488</v>
-      </c>
-      <c r="C1894" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1895">
-      <c r="A1895" t="s">
-        <v>3489</v>
-      </c>
-      <c r="B1895" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1895" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1896">
-      <c r="A1896" t="s">
-        <v>3491</v>
-      </c>
-      <c r="B1896" t="s">
-        <v>3492</v>
-      </c>
-      <c r="C1896" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1897">
-      <c r="A1897" t="s">
-        <v>3493</v>
-      </c>
-      <c r="B1897" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1897" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1898">
-      <c r="A1898" t="s">
-        <v>3494</v>
-      </c>
-      <c r="B1898" t="s">
-        <v>3495</v>
-      </c>
-      <c r="C1898" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1899">
-      <c r="A1899" t="s">
-        <v>3496</v>
-      </c>
-      <c r="B1899" t="s">
-        <v>3497</v>
-      </c>
-      <c r="C1899" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1900">
-      <c r="A1900" t="s">
-        <v>3498</v>
-      </c>
-      <c r="B1900" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1900" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1901">
-      <c r="A1901" t="s">
-        <v>3499</v>
-      </c>
-      <c r="B1901" t="s">
-        <v>3500</v>
-      </c>
-      <c r="C1901" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1902">
-      <c r="A1902" t="s">
-        <v>3501</v>
-      </c>
-      <c r="B1902" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1902" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1903">
-      <c r="A1903" t="s">
-        <v>3502</v>
-      </c>
-      <c r="B1903" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1903" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1904">
-      <c r="A1904" t="s">
-        <v>3503</v>
-      </c>
-      <c r="B1904" t="s">
-        <v>3504</v>
-      </c>
-      <c r="C1904" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1905">
-      <c r="A1905" t="s">
-        <v>3505</v>
-      </c>
-      <c r="B1905" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1905" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1906">
-      <c r="A1906" t="s">
-        <v>3506</v>
-      </c>
-      <c r="B1906" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1906" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1907">
-      <c r="A1907" t="s">
-        <v>3507</v>
-      </c>
-      <c r="B1907" t="s">
-        <v>3508</v>
-      </c>
-      <c r="C1907" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1908">
-      <c r="A1908" t="s">
-        <v>3509</v>
-      </c>
-      <c r="B1908" t="s">
-        <v>3510</v>
-      </c>
-      <c r="C1908" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1909">
-      <c r="A1909" t="s">
-        <v>3511</v>
-      </c>
-      <c r="B1909" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1909" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1910">
-      <c r="A1910" t="s">
-        <v>3512</v>
-      </c>
-      <c r="B1910" t="s">
-        <v>3513</v>
-      </c>
-      <c r="C1910" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1911">
-      <c r="A1911" t="s">
-        <v>3514</v>
-      </c>
-      <c r="B1911" t="s">
-        <v>3515</v>
-      </c>
-      <c r="C1911" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1912">
-      <c r="A1912" t="s">
-        <v>3516</v>
-      </c>
-      <c r="B1912" t="s">
-        <v>3517</v>
-      </c>
-      <c r="C1912" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1913">
-      <c r="A1913" t="s">
-        <v>3518</v>
-      </c>
-      <c r="B1913" t="s">
-        <v>3519</v>
-      </c>
-      <c r="C1913" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1914">
-      <c r="A1914" t="s">
-        <v>3520</v>
-      </c>
-      <c r="B1914" t="s">
-        <v>3521</v>
-      </c>
-      <c r="C1914" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1915">
-      <c r="A1915" t="s">
-        <v>3522</v>
-      </c>
-      <c r="B1915" t="s">
-        <v>3523</v>
-      </c>
-      <c r="C1915" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1916">
-      <c r="A1916" t="s">
-        <v>3524</v>
-      </c>
-      <c r="B1916" t="s">
-        <v>3525</v>
-      </c>
-      <c r="C1916" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1917">
-      <c r="A1917" t="s">
-        <v>3526</v>
-      </c>
-      <c r="B1917" t="s">
-        <v>3527</v>
-      </c>
-      <c r="C1917" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1918">
-      <c r="A1918" t="s">
-        <v>3528</v>
-      </c>
-      <c r="B1918" t="s">
-        <v>3529</v>
-      </c>
-      <c r="C1918" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1919">
-      <c r="A1919" t="s">
-        <v>3530</v>
-      </c>
-      <c r="B1919" t="s">
-        <v>3531</v>
-      </c>
-      <c r="C1919" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1920">
-      <c r="A1920" t="s">
-        <v>3532</v>
-      </c>
-      <c r="B1920" t="s">
-        <v>3533</v>
-      </c>
-      <c r="C1920" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1921">
-      <c r="A1921" t="s">
-        <v>3534</v>
-      </c>
-      <c r="B1921" t="s">
-        <v>3535</v>
-      </c>
-      <c r="C1921" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1922">
-      <c r="A1922" t="s">
-        <v>3536</v>
-      </c>
-      <c r="B1922" t="s">
-        <v>3537</v>
-      </c>
-      <c r="C1922" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1923">
-      <c r="A1923" t="s">
-        <v>3538</v>
-      </c>
-      <c r="B1923" t="s">
-        <v>3539</v>
-      </c>
-      <c r="C1923" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1924">
-      <c r="A1924" t="s">
-        <v>3540</v>
-      </c>
-      <c r="B1924" t="s">
-        <v>3541</v>
-      </c>
-      <c r="C1924" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1925">
-      <c r="A1925" t="s">
-        <v>3542</v>
-      </c>
-      <c r="B1925" t="s">
-        <v>3543</v>
-      </c>
-      <c r="C1925" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1926">
-      <c r="A1926" t="s">
-        <v>3544</v>
-      </c>
-      <c r="B1926" t="s">
-        <v>3545</v>
-      </c>
-      <c r="C1926" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1927">
-      <c r="A1927" t="s">
-        <v>3546</v>
-      </c>
-      <c r="B1927" t="s">
-        <v>3531</v>
-      </c>
-      <c r="C1927" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1928">
-      <c r="A1928" t="s">
-        <v>3547</v>
-      </c>
-      <c r="B1928" t="s">
-        <v>3548</v>
-      </c>
-      <c r="C1928" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1929">
-      <c r="A1929" t="s">
-        <v>3549</v>
-      </c>
-      <c r="B1929" t="s">
-        <v>3550</v>
-      </c>
-      <c r="C1929" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1930">
-      <c r="A1930" t="s">
-        <v>3551</v>
-      </c>
-      <c r="B1930" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1930" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1931">
-      <c r="A1931" t="s">
-        <v>3552</v>
-      </c>
-      <c r="B1931" t="s">
-        <v>3523</v>
-      </c>
-      <c r="C1931" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1932">
-      <c r="A1932" t="s">
-        <v>3553</v>
-      </c>
-      <c r="B1932" t="s">
-        <v>3554</v>
-      </c>
-      <c r="C1932" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1933">
-      <c r="A1933" t="s">
-        <v>3555</v>
-      </c>
-      <c r="B1933" t="s">
-        <v>3556</v>
-      </c>
-      <c r="C1933" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1934">
-      <c r="A1934" t="s">
-        <v>3557</v>
-      </c>
-      <c r="B1934" t="s">
-        <v>3558</v>
-      </c>
-      <c r="C1934" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1935">
-      <c r="A1935" t="s">
-        <v>3559</v>
-      </c>
-      <c r="B1935" t="s">
-        <v>3545</v>
-      </c>
-      <c r="C1935" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1936">
-      <c r="A1936" t="s">
-        <v>3560</v>
-      </c>
-      <c r="B1936" t="s">
-        <v>3561</v>
-      </c>
-      <c r="C1936" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1937">
-      <c r="A1937" t="s">
-        <v>3562</v>
-      </c>
-      <c r="B1937" t="s">
-        <v>3531</v>
-      </c>
-      <c r="C1937" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1938">
-      <c r="A1938" t="s">
-        <v>3563</v>
-      </c>
-      <c r="B1938" t="s">
-        <v>3564</v>
-      </c>
-      <c r="C1938" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1939">
-      <c r="A1939" t="s">
-        <v>3565</v>
-      </c>
-      <c r="B1939" t="s">
-        <v>3566</v>
-      </c>
-      <c r="C1939" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1940">
-      <c r="A1940" t="s">
-        <v>3567</v>
-      </c>
-      <c r="B1940" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1940" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1941">
-      <c r="A1941" t="s">
-        <v>3568</v>
-      </c>
-      <c r="B1941" t="s">
-        <v>3569</v>
-      </c>
-      <c r="C1941" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1942">
-      <c r="A1942" t="s">
-        <v>3570</v>
-      </c>
-      <c r="B1942" t="s">
-        <v>3571</v>
-      </c>
-      <c r="C1942" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1943">
-      <c r="A1943" t="s">
-        <v>3572</v>
-      </c>
-      <c r="B1943" t="s">
-        <v>3545</v>
-      </c>
-      <c r="C1943" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1944">
-      <c r="A1944" t="s">
-        <v>3573</v>
-      </c>
-      <c r="B1944" t="s">
-        <v>3574</v>
-      </c>
-      <c r="C1944" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1945">
-      <c r="A1945" t="s">
-        <v>3575</v>
-      </c>
-      <c r="B1945" t="s">
-        <v>3513</v>
-      </c>
-      <c r="C1945" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1946">
-      <c r="A1946" t="s">
-        <v>3576</v>
-      </c>
-      <c r="B1946" t="s">
-        <v>3554</v>
-      </c>
-      <c r="C1946" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1947">
-      <c r="A1947" t="s">
-        <v>3577</v>
-      </c>
-      <c r="B1947" t="s">
-        <v>3578</v>
-      </c>
-      <c r="C1947" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1948">
-      <c r="A1948" t="s">
-        <v>3579</v>
-      </c>
-      <c r="B1948" t="s">
-        <v>3580</v>
-      </c>
-      <c r="C1948" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1949">
-      <c r="A1949" t="s">
-        <v>3581</v>
-      </c>
-      <c r="B1949" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1949" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1950">
-      <c r="A1950" t="s">
-        <v>3582</v>
-      </c>
-      <c r="B1950" t="s">
-        <v>3583</v>
-      </c>
-      <c r="C1950" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1951">
-      <c r="A1951" t="s">
-        <v>3584</v>
-      </c>
-      <c r="B1951" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1951" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1952">
-      <c r="A1952" t="s">
-        <v>3585</v>
-      </c>
-      <c r="B1952" t="s">
-        <v>3586</v>
-      </c>
-      <c r="C1952" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1953">
-      <c r="A1953" t="s">
-        <v>3587</v>
-      </c>
-      <c r="B1953" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1953" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1954">
-      <c r="A1954" t="s">
-        <v>3588</v>
-      </c>
-      <c r="B1954" t="s">
-        <v>3589</v>
-      </c>
-      <c r="C1954" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1955">
-      <c r="A1955" t="s">
-        <v>3590</v>
-      </c>
-      <c r="B1955" t="s">
-        <v>3591</v>
-      </c>
-      <c r="C1955" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1956">
-      <c r="A1956" t="s">
-        <v>3592</v>
-      </c>
-      <c r="B1956" t="s">
-        <v>3593</v>
-      </c>
-      <c r="C1956" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1957">
-      <c r="A1957" t="s">
-        <v>3594</v>
-      </c>
-      <c r="B1957" t="s">
-        <v>3595</v>
-      </c>
-      <c r="C1957" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1958">
-      <c r="A1958" t="s">
-        <v>3596</v>
-      </c>
-      <c r="B1958" t="s">
-        <v>3597</v>
-      </c>
-      <c r="C1958" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1959">
-      <c r="A1959" t="s">
-        <v>3598</v>
-      </c>
-      <c r="B1959" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1959" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1960">
-      <c r="A1960" t="s">
-        <v>3599</v>
-      </c>
-      <c r="B1960" t="s">
-        <v>3600</v>
-      </c>
-      <c r="C1960" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1961">
-      <c r="A1961" t="s">
-        <v>3601</v>
-      </c>
-      <c r="B1961" t="s">
-        <v>3554</v>
-      </c>
-      <c r="C1961" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1962">
-      <c r="A1962" t="s">
-        <v>3602</v>
-      </c>
-      <c r="B1962" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1962" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1963">
-      <c r="A1963" t="s">
-        <v>3603</v>
-      </c>
-      <c r="B1963" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1963" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1964">
-      <c r="A1964" t="s">
-        <v>3604</v>
-      </c>
-      <c r="B1964" t="s">
-        <v>3605</v>
-      </c>
-      <c r="C1964" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1965">
-      <c r="A1965" t="s">
-        <v>3606</v>
-      </c>
-      <c r="B1965" t="s">
-        <v>3607</v>
-      </c>
-      <c r="C1965" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1966">
-      <c r="A1966" t="s">
-        <v>3608</v>
-      </c>
-      <c r="B1966" t="s">
-        <v>3607</v>
-      </c>
-      <c r="C1966" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1967">
-      <c r="A1967" t="s">
-        <v>3609</v>
-      </c>
-      <c r="B1967" t="s">
-        <v>3610</v>
-      </c>
-      <c r="C1967" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1968">
-      <c r="A1968" t="s">
-        <v>3611</v>
-      </c>
-      <c r="B1968" t="s">
-        <v>3612</v>
-      </c>
-      <c r="C1968" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1969">
-      <c r="A1969" t="s">
-        <v>3613</v>
-      </c>
-      <c r="B1969" t="s">
-        <v>3614</v>
-      </c>
-      <c r="C1969" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1970">
-      <c r="A1970" t="s">
-        <v>3615</v>
-      </c>
-      <c r="B1970" t="s">
-        <v>3554</v>
-      </c>
-      <c r="C1970" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1971">
-      <c r="A1971" t="s">
-        <v>3616</v>
-      </c>
-      <c r="B1971" t="s">
-        <v>3569</v>
-      </c>
-      <c r="C1971" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1972">
-      <c r="A1972" t="s">
-        <v>3617</v>
-      </c>
-      <c r="B1972" t="s">
-        <v>3618</v>
-      </c>
-      <c r="C1972" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1973">
-      <c r="A1973" t="s">
-        <v>3619</v>
-      </c>
-      <c r="B1973" t="s">
-        <v>3620</v>
-      </c>
-      <c r="C1973" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1974">
-      <c r="A1974" t="s">
-        <v>3621</v>
-      </c>
-      <c r="B1974" t="s">
-        <v>3622</v>
-      </c>
-      <c r="C1974" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1975">
-      <c r="A1975" t="s">
-        <v>3623</v>
-      </c>
-      <c r="B1975" t="s">
-        <v>3531</v>
-      </c>
-      <c r="C1975" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1976">
-      <c r="A1976" t="s">
-        <v>3624</v>
-      </c>
-      <c r="B1976" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1976" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1977">
-      <c r="A1977" t="s">
-        <v>3625</v>
-      </c>
-      <c r="B1977" t="s">
-        <v>3626</v>
-      </c>
-      <c r="C1977" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1978">
-      <c r="A1978" t="s">
-        <v>3627</v>
-      </c>
-      <c r="B1978" t="s">
-        <v>3545</v>
-      </c>
-      <c r="C1978" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1979">
-      <c r="A1979" t="s">
-        <v>3628</v>
-      </c>
-      <c r="B1979" t="s">
-        <v>3629</v>
-      </c>
-      <c r="C1979" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1980">
-      <c r="A1980" t="s">
-        <v>3630</v>
-      </c>
-      <c r="B1980" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1980" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1981">
-      <c r="A1981" t="s">
-        <v>3631</v>
-      </c>
-      <c r="B1981" t="s">
-        <v>3545</v>
-      </c>
-      <c r="C1981" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1982">
-      <c r="A1982" t="s">
-        <v>3632</v>
-      </c>
-      <c r="B1982" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1982" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1983">
-      <c r="A1983" t="s">
-        <v>3633</v>
-      </c>
-      <c r="B1983" t="s">
-        <v>3634</v>
-      </c>
-      <c r="C1983" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1984">
-      <c r="A1984" t="s">
-        <v>3635</v>
-      </c>
-      <c r="B1984" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1984" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1985">
-      <c r="A1985" t="s">
-        <v>3636</v>
-      </c>
-      <c r="B1985" t="s">
-        <v>3626</v>
-      </c>
-      <c r="C1985" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1986">
-      <c r="A1986" t="s">
-        <v>3637</v>
-      </c>
-      <c r="B1986" t="s">
-        <v>3497</v>
-      </c>
-      <c r="C1986" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1987">
-      <c r="A1987" t="s">
-        <v>3638</v>
-      </c>
-      <c r="B1987" t="s">
-        <v>3639</v>
-      </c>
-      <c r="C1987" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1988">
-      <c r="A1988" t="s">
-        <v>3640</v>
-      </c>
-      <c r="B1988" t="s">
-        <v>3641</v>
-      </c>
-      <c r="C1988" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1989">
-      <c r="A1989" t="s">
-        <v>3642</v>
-      </c>
-      <c r="B1989" t="s">
-        <v>3643</v>
-      </c>
-      <c r="C1989" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1990">
-      <c r="A1990" t="s">
-        <v>3644</v>
-      </c>
-      <c r="B1990" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C1990" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1991">
-      <c r="A1991" t="s">
-        <v>3645</v>
-      </c>
-      <c r="B1991" t="s">
-        <v>3646</v>
-      </c>
-      <c r="C1991" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1992">
-      <c r="A1992" t="s">
-        <v>3647</v>
-      </c>
-      <c r="B1992" t="s">
-        <v>3591</v>
-      </c>
-      <c r="C1992" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1993">
-      <c r="A1993" t="s">
-        <v>3648</v>
-      </c>
-      <c r="B1993" t="s">
-        <v>3550</v>
-      </c>
-      <c r="C1993" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1994">
-      <c r="A1994" t="s">
-        <v>3649</v>
-      </c>
-      <c r="B1994" t="s">
-        <v>3554</v>
-      </c>
-      <c r="C1994" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1995">
-      <c r="A1995" t="s">
-        <v>3650</v>
-      </c>
-      <c r="B1995" t="s">
-        <v>3545</v>
-      </c>
-      <c r="C1995" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1996">
-      <c r="A1996" t="s">
-        <v>3651</v>
-      </c>
-      <c r="B1996" t="s">
-        <v>3652</v>
-      </c>
-      <c r="C1996" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1997">
-      <c r="A1997" t="s">
-        <v>3653</v>
-      </c>
-      <c r="B1997" t="s">
-        <v>3554</v>
-      </c>
-      <c r="C1997" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1998">
-      <c r="A1998" t="s">
-        <v>3654</v>
-      </c>
-      <c r="B1998" t="s">
-        <v>3655</v>
-      </c>
-      <c r="C1998" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1999">
-      <c r="A1999" t="s">
-        <v>3656</v>
-      </c>
-      <c r="B1999" t="s">
-        <v>3657</v>
-      </c>
-      <c r="C1999" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="2000">
-      <c r="A2000" t="s">
-        <v>3658</v>
-      </c>
-      <c r="B2000" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C2000" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="2001">
-      <c r="A2001" t="s">
-        <v>3659</v>
-      </c>
-      <c r="B2001" t="s">
-        <v>3515</v>
-      </c>
-      <c r="C2001" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="2002">
-      <c r="A2002" t="s">
-        <v>3660</v>
-      </c>
-      <c r="B2002" t="s">
-        <v>3661</v>
-      </c>
-      <c r="C2002" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="2003">
-      <c r="A2003" t="s">
-        <v>3662</v>
-      </c>
-      <c r="B2003" t="s">
-        <v>3663</v>
-      </c>
-      <c r="C2003" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" t="s">
-        <v>3664</v>
-      </c>
-      <c r="B2004" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C2004" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="2005">
-      <c r="A2005" t="s">
-        <v>3665</v>
-      </c>
-      <c r="B2005" t="s">
-        <v>3655</v>
-      </c>
-      <c r="C2005" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="2006">
-      <c r="A2006" t="s">
-        <v>3666</v>
-      </c>
-      <c r="B2006" t="s">
-        <v>3667</v>
-      </c>
-      <c r="C2006" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="2007">
-      <c r="A2007" t="s">
-        <v>3668</v>
-      </c>
-      <c r="B2007" t="s">
-        <v>3669</v>
-      </c>
-      <c r="C2007" t="n">
+        <v>405</v>
+      </c>
+      <c r="C1889" t="n">
         <v>0.8</v>
       </c>
     </row>

--- a/标签库.xlsx
+++ b/标签库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3503" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3673" uniqueCount="165">
   <si>
     <t>属性标签描述</t>
   </si>
@@ -10454,6 +10454,426 @@
   </si>
   <si>
     <t>个人合计</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>账务其它(单位)</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>公积金.个人比例</t>
+  </si>
+  <si>
+    <t>个人缴费.医疗</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>公积金.基数</t>
+  </si>
+  <si>
+    <t>1510.0</t>
+  </si>
+  <si>
+    <t>单位小计</t>
+  </si>
+  <si>
+    <t>1763.44</t>
+  </si>
+  <si>
+    <t>单位合计</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>失业保险.单位比例</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>医疗保险.单位金额</t>
+  </si>
+  <si>
+    <t>370.69</t>
+  </si>
+  <si>
+    <t>账单年月</t>
+  </si>
+  <si>
+    <t>201711</t>
+  </si>
+  <si>
+    <t>唯一号</t>
+  </si>
+  <si>
+    <t>413440</t>
+  </si>
+  <si>
+    <t>工伤基数</t>
+  </si>
+  <si>
+    <t>养老保险.单位基数</t>
+  </si>
+  <si>
+    <t>3902.0</t>
+  </si>
+  <si>
+    <t>公积金单位小计</t>
+  </si>
+  <si>
+    <t>75.5</t>
+  </si>
+  <si>
+    <t>大病救助</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>工伤保险.单位比例</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>医疗保险.总额</t>
+  </si>
+  <si>
+    <t>448.79</t>
+  </si>
+  <si>
+    <t>生育基数</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>社保小计</t>
+  </si>
+  <si>
+    <t>1627.34</t>
+  </si>
+  <si>
+    <t>雇主</t>
+  </si>
+  <si>
+    <t>北京京东世纪信息技术有限公司</t>
+  </si>
+  <si>
+    <t>单位缴费.生育</t>
+  </si>
+  <si>
+    <t>12.08</t>
+  </si>
+  <si>
+    <t>医疗保险.单位基数</t>
+  </si>
+  <si>
+    <t>住房公积金.总额</t>
+  </si>
+  <si>
+    <t>1092.0</t>
+  </si>
+  <si>
+    <t>服务年月</t>
+  </si>
+  <si>
+    <t>失业保险.城市</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>证件号</t>
+  </si>
+  <si>
+    <t>320322198304227315</t>
+  </si>
+  <si>
+    <t>基本养老保险.单位20%</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>社保单位小计</t>
+  </si>
+  <si>
+    <t>508.42</t>
+  </si>
+  <si>
+    <t>失业保险.单位基数</t>
+  </si>
+  <si>
+    <t>住房公积金.单位比例</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>应付合计</t>
+  </si>
+  <si>
+    <t>个人缴纳</t>
+  </si>
+  <si>
+    <t>324.1</t>
+  </si>
+  <si>
+    <t>医疗保险.城市</t>
+  </si>
+  <si>
+    <t>社保个人小计</t>
+  </si>
+  <si>
+    <t>409.9</t>
+  </si>
+  <si>
+    <t>人员类别</t>
+  </si>
+  <si>
+    <t>合计:</t>
+  </si>
+  <si>
+    <t>养老保险.单位金额</t>
+  </si>
+  <si>
+    <t>780.4</t>
+  </si>
+  <si>
+    <t>地点</t>
+  </si>
+  <si>
+    <t>中山</t>
+  </si>
+  <si>
+    <t>单位缴费.医疗</t>
+  </si>
+  <si>
+    <t>52.4</t>
+  </si>
+  <si>
+    <t>个人缴费.公积金</t>
+  </si>
+  <si>
+    <t>工资.实发工资</t>
+  </si>
+  <si>
+    <t>2688.0</t>
+  </si>
+  <si>
+    <t>个人小计(纳入)</t>
+  </si>
+  <si>
+    <t>单位缴纳</t>
+  </si>
+  <si>
+    <t>583.9200000000001</t>
+  </si>
+  <si>
+    <t>工伤保险.单位金额</t>
+  </si>
+  <si>
+    <t>7.81</t>
+  </si>
+  <si>
+    <t>公积金.单位比例</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>2719.34</t>
+  </si>
+  <si>
+    <t>公积金企业小计</t>
+  </si>
+  <si>
+    <t>546.0</t>
+  </si>
+  <si>
+    <t>基本医疗保险.单位8%</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>住房公积金.城市</t>
+  </si>
+  <si>
+    <t>养老保险.总额</t>
+  </si>
+  <si>
+    <t>1092.6</t>
+  </si>
+  <si>
+    <t>单位缴费.公积金</t>
+  </si>
+  <si>
+    <t>生育保险.单位比例</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>期间</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>生育保险.城市</t>
+  </si>
+  <si>
+    <t>工伤保险.单位0.2%</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>失业保险.总额</t>
+  </si>
+  <si>
+    <t>39.12</t>
+  </si>
+  <si>
+    <t>养老保险.单位比例</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>个人缴费.失业</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>工伤保险.单位基数</t>
+  </si>
+  <si>
+    <t>失业基数</t>
+  </si>
+  <si>
+    <t>医疗保险.单位比例</t>
+  </si>
+  <si>
+    <t>0.095</t>
+  </si>
+  <si>
+    <t>单位缴费.失业</t>
+  </si>
+  <si>
+    <t>工资.个调税</t>
+  </si>
+  <si>
+    <t>公积金个人小计</t>
+  </si>
+  <si>
+    <t>账务其它(个人)</t>
+  </si>
+  <si>
+    <t>失业保险.单位金额</t>
+  </si>
+  <si>
+    <t>19.52</t>
+  </si>
+  <si>
+    <t>单位缴费.残保金</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>单位小计(纳入)</t>
+  </si>
+  <si>
+    <t>住房公积金.单位基数</t>
+  </si>
+  <si>
+    <t>7800.0</t>
+  </si>
+  <si>
+    <t>工伤保险.总额</t>
+  </si>
+  <si>
+    <t>公积金小计</t>
+  </si>
+  <si>
+    <t>工伤保险.城市</t>
+  </si>
+  <si>
+    <t>个人缴费.养老</t>
+  </si>
+  <si>
+    <t>232.48</t>
+  </si>
+  <si>
+    <t>医疗基数</t>
+  </si>
+  <si>
+    <t>2620.0</t>
+  </si>
+  <si>
+    <t>养老保险.城市</t>
+  </si>
+  <si>
+    <t>养老基数</t>
+  </si>
+  <si>
+    <t>2906.0</t>
+  </si>
+  <si>
+    <t>生育保险.总额</t>
+  </si>
+  <si>
+    <t>39.02</t>
+  </si>
+  <si>
+    <t>个人小计</t>
+  </si>
+  <si>
+    <t>955.9</t>
+  </si>
+  <si>
+    <t>单位缴费.工伤</t>
+  </si>
+  <si>
+    <t>生育保险.单位金额</t>
+  </si>
+  <si>
+    <t>单位缴费.养老</t>
+  </si>
+  <si>
+    <t>377.78</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>社保企业小计</t>
+  </si>
+  <si>
+    <t>1217.44</t>
+  </si>
+  <si>
+    <t>实发工资</t>
   </si>
 </sst>
 </file>
@@ -11404,7 +11824,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:D1889"/>
+  <dimension ref="A1:D1974"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1838" workbookViewId="0">
       <selection activeCell="C1871" sqref="C1871"/>
@@ -11412,9 +11832,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.1111111111111" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="31.162962962963" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.2222222222222" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="40.1111111111111" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.162962962963" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.2222222222222" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="15.75" r="1" spans="1:3">
@@ -32196,6 +32616,941 @@
         <v>0.8</v>
       </c>
     </row>
+    <row r="1890">
+      <c r="A1890" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B1890" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1890" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B1891" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C1891" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1892" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C1892" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1893" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C1893" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B1894" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C1894" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B1895" t="s">
+        <v>3490</v>
+      </c>
+      <c r="C1895" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="s">
+        <v>3491</v>
+      </c>
+      <c r="B1896" t="s">
+        <v>3492</v>
+      </c>
+      <c r="C1896" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B1897" t="s">
+        <v>3494</v>
+      </c>
+      <c r="C1897" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1898" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C1898" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B1899" t="s">
+        <v>3498</v>
+      </c>
+      <c r="C1899" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="s">
+        <v>3499</v>
+      </c>
+      <c r="B1900" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C1900" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="s">
+        <v>3501</v>
+      </c>
+      <c r="B1901" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C1901" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="s">
+        <v>3502</v>
+      </c>
+      <c r="B1902" t="s">
+        <v>3503</v>
+      </c>
+      <c r="C1902" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="s">
+        <v>3504</v>
+      </c>
+      <c r="B1903" t="s">
+        <v>3505</v>
+      </c>
+      <c r="C1903" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B1904" t="s">
+        <v>3507</v>
+      </c>
+      <c r="C1904" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B1905" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C1905" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B1906" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C1906" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B1907" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C1907" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="s">
+        <v>3513</v>
+      </c>
+      <c r="B1908" t="s">
+        <v>3514</v>
+      </c>
+      <c r="C1908" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B1909" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C1909" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B1910" t="s">
+        <v>3518</v>
+      </c>
+      <c r="C1910" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B1911" t="s">
+        <v>3520</v>
+      </c>
+      <c r="C1911" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B1912" t="s">
+        <v>3503</v>
+      </c>
+      <c r="C1912" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="s">
+        <v>3522</v>
+      </c>
+      <c r="B1913" t="s">
+        <v>3523</v>
+      </c>
+      <c r="C1913" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B1914" t="s">
+        <v>3498</v>
+      </c>
+      <c r="C1914" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B1915" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C1915" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="s">
+        <v>3527</v>
+      </c>
+      <c r="B1916" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C1916" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B1917" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C1917" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B1918" t="s">
+        <v>3532</v>
+      </c>
+      <c r="C1918" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B1919" t="s">
+        <v>3503</v>
+      </c>
+      <c r="C1919" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="s">
+        <v>3534</v>
+      </c>
+      <c r="B1920" t="s">
+        <v>3535</v>
+      </c>
+      <c r="C1920" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B1921" t="s">
+        <v>3492</v>
+      </c>
+      <c r="C1921" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B1922" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C1922" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B1923" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C1923" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="s">
+        <v>3540</v>
+      </c>
+      <c r="B1924" t="s">
+        <v>3541</v>
+      </c>
+      <c r="C1924" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B1925" t="s">
+        <v>3543</v>
+      </c>
+      <c r="C1925" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B1926" t="s">
+        <v>3545</v>
+      </c>
+      <c r="C1926" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="s">
+        <v>3546</v>
+      </c>
+      <c r="B1927" t="s">
+        <v>3547</v>
+      </c>
+      <c r="C1927" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="s">
+        <v>3548</v>
+      </c>
+      <c r="B1928" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C1928" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="s">
+        <v>3550</v>
+      </c>
+      <c r="B1929" t="s">
+        <v>3505</v>
+      </c>
+      <c r="C1929" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B1930" t="s">
+        <v>3552</v>
+      </c>
+      <c r="C1930" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B1931" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C1931" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="s">
+        <v>3554</v>
+      </c>
+      <c r="B1932" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C1932" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="s">
+        <v>3556</v>
+      </c>
+      <c r="B1933" t="s">
+        <v>3557</v>
+      </c>
+      <c r="C1933" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="s">
+        <v>3558</v>
+      </c>
+      <c r="B1934" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C1934" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B1935" t="s">
+        <v>3560</v>
+      </c>
+      <c r="C1935" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B1936" t="s">
+        <v>3562</v>
+      </c>
+      <c r="C1936" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B1937" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C1937" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B1938" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C1938" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B1939" t="s">
+        <v>3567</v>
+      </c>
+      <c r="C1939" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B1940" t="s">
+        <v>3505</v>
+      </c>
+      <c r="C1940" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B1941" t="s">
+        <v>3570</v>
+      </c>
+      <c r="C1941" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B1942" t="s">
+        <v>3572</v>
+      </c>
+      <c r="C1942" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B1943" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C1943" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B1944" t="s">
+        <v>3575</v>
+      </c>
+      <c r="C1944" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="s">
+        <v>3576</v>
+      </c>
+      <c r="B1945" t="s">
+        <v>3577</v>
+      </c>
+      <c r="C1945" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="s">
+        <v>3578</v>
+      </c>
+      <c r="B1946" t="s">
+        <v>3579</v>
+      </c>
+      <c r="C1946" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B1947" t="s">
+        <v>3581</v>
+      </c>
+      <c r="C1947" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B1948" t="s">
+        <v>3503</v>
+      </c>
+      <c r="C1948" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B1949" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C1949" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="s">
+        <v>3584</v>
+      </c>
+      <c r="B1950" t="s">
+        <v>3585</v>
+      </c>
+      <c r="C1950" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="s">
+        <v>3586</v>
+      </c>
+      <c r="B1951" t="s">
+        <v>3520</v>
+      </c>
+      <c r="C1951" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B1952" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C1952" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="s">
+        <v>3588</v>
+      </c>
+      <c r="B1953" t="s">
+        <v>3562</v>
+      </c>
+      <c r="C1953" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="s">
+        <v>3589</v>
+      </c>
+      <c r="B1954" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C1954" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="s">
+        <v>3590</v>
+      </c>
+      <c r="B1955" t="s">
+        <v>3591</v>
+      </c>
+      <c r="C1955" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="s">
+        <v>3592</v>
+      </c>
+      <c r="B1956" t="s">
+        <v>3593</v>
+      </c>
+      <c r="C1956" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="s">
+        <v>3594</v>
+      </c>
+      <c r="B1957" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C1957" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="s">
+        <v>3595</v>
+      </c>
+      <c r="B1958" t="s">
+        <v>3596</v>
+      </c>
+      <c r="C1958" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="s">
+        <v>3597</v>
+      </c>
+      <c r="B1959" t="s">
+        <v>3557</v>
+      </c>
+      <c r="C1959" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B1960" t="s">
+        <v>3523</v>
+      </c>
+      <c r="C1960" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B1961" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C1961" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="s">
+        <v>3600</v>
+      </c>
+      <c r="B1962" t="s">
+        <v>3601</v>
+      </c>
+      <c r="C1962" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="s">
+        <v>3602</v>
+      </c>
+      <c r="B1963" t="s">
+        <v>3603</v>
+      </c>
+      <c r="C1963" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B1964" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C1964" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B1965" t="s">
+        <v>3606</v>
+      </c>
+      <c r="C1965" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B1966" t="s">
+        <v>3608</v>
+      </c>
+      <c r="C1966" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B1967" t="s">
+        <v>3610</v>
+      </c>
+      <c r="C1967" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B1968" t="s">
+        <v>3520</v>
+      </c>
+      <c r="C1968" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="s">
+        <v>3612</v>
+      </c>
+      <c r="B1969" t="s">
+        <v>3608</v>
+      </c>
+      <c r="C1969" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="s">
+        <v>3613</v>
+      </c>
+      <c r="B1970" t="s">
+        <v>3614</v>
+      </c>
+      <c r="C1970" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="s">
+        <v>3615</v>
+      </c>
+      <c r="B1971" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C1971" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="s">
+        <v>3616</v>
+      </c>
+      <c r="B1972" t="s">
+        <v>3514</v>
+      </c>
+      <c r="C1972" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B1973" t="s">
+        <v>3618</v>
+      </c>
+      <c r="C1973" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="s">
+        <v>3619</v>
+      </c>
+      <c r="B1974" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C1974" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <headerFooter/>
